--- a/docs/book/ipsativemesurement.xlsx
+++ b/docs/book/ipsativemesurement.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t xml:space="preserve">deductive</t>
   </si>
@@ -54,6 +54,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Q-Methodology („forced distribution“), </t>
     </r>
@@ -63,6 +64,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">space efficiency</t>
     </r>
@@ -88,6 +90,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Open Sorts (</t>
     </r>
@@ -97,6 +100,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">mece</t>
     </r>
@@ -105,12 +109,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">inductive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prototype analysis (komki)</t>
   </si>
   <si>
     <t xml:space="preserve">komki</t>
@@ -128,6 +136,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -149,12 +158,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -310,7 +321,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -413,12 +424,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G9" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
